--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\CSCE689\CSCE689_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDemore Git Repo\CSCE689\CSCE689_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5494BC-F026-4757-A698-1E74591781EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D8274-818C-4259-8C9E-E4CC6190AFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1753EE49-9424-40C1-99D8-39E2576A328F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1753EE49-9424-40C1-99D8-39E2576A328F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>RSA #</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Factor 1</t>
   </si>
@@ -204,7 +201,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Process</c:v>
+                  <c:v>Threaded Server</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,19 +304,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>99883</c:v>
+                  <c:v>279123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13294183</c:v>
+                  <c:v>18238439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27628588</c:v>
+                  <c:v>13271302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103954497</c:v>
+                  <c:v>71870240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196078127</c:v>
+                  <c:v>115568893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Threaded Server</c:v>
+                  <c:v>Ratio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,22 +436,22 @@
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>279123</c:v>
+                  <c:v>2.794499564490454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18238439</c:v>
+                  <c:v>1.371911233657608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13271302</c:v>
+                  <c:v>0.4803467336079571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71870240</c:v>
+                  <c:v>0.69136249103297576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115568893</c:v>
+                  <c:v>0.58940226922914252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,16 +1322,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1474470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1662,146 +1659,141 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1688169221</v>
+      </c>
       <c r="C3" s="2">
-        <v>1688169221</v>
+        <v>6617805671</v>
       </c>
       <c r="D3" s="2">
-        <v>6617805671</v>
+        <v>99883</v>
       </c>
       <c r="E3" s="2">
-        <v>99883</v>
-      </c>
-      <c r="F3" s="2">
         <v>279123</v>
       </c>
-      <c r="G3">
-        <f>F3/E3</f>
+      <c r="F3">
+        <f>E3/D3</f>
         <v>2.794499564490454</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>86</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1540256347239</v>
+      </c>
       <c r="C4" s="2">
-        <v>1540256347239</v>
+        <v>3665869318777</v>
       </c>
       <c r="D4" s="2">
-        <v>3665869318777</v>
+        <v>13294183</v>
       </c>
       <c r="E4" s="2">
-        <v>13294183</v>
-      </c>
-      <c r="F4" s="2">
         <v>18238439</v>
       </c>
-      <c r="G4">
-        <f>F4/E4</f>
+      <c r="F4">
+        <f>E4/D4</f>
         <v>1.371911233657608</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90</v>
       </c>
+      <c r="B5" s="2">
+        <v>13866199818883</v>
+      </c>
       <c r="C5" s="2">
-        <v>13866199818883</v>
+        <v>62146804635659</v>
       </c>
       <c r="D5" s="2">
-        <v>62146804635659</v>
+        <v>27628588</v>
       </c>
       <c r="E5" s="2">
-        <v>27628588</v>
-      </c>
-      <c r="F5" s="2">
         <v>13271302</v>
       </c>
-      <c r="G5">
-        <f>F5/E5</f>
+      <c r="F5">
+        <f>E5/D5</f>
         <v>0.4803467336079571</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>96</v>
       </c>
+      <c r="B6" s="2">
+        <v>440430596527111</v>
+      </c>
       <c r="C6" s="2">
-        <v>440430596527111</v>
+        <v>130108466228801</v>
       </c>
       <c r="D6" s="2">
-        <v>130108466228801</v>
+        <v>103954497</v>
       </c>
       <c r="E6" s="2">
-        <v>103954497</v>
-      </c>
-      <c r="F6" s="2">
         <v>71870240</v>
       </c>
-      <c r="G6">
-        <f>F6/E6</f>
+      <c r="F6">
+        <f>E6/D6</f>
         <v>0.69136249103297576</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
+      <c r="B7" s="2">
+        <v>2038479802313130</v>
+      </c>
       <c r="C7" s="2">
-        <v>2038479802313130</v>
+        <v>42484677222223</v>
       </c>
       <c r="D7" s="2">
-        <v>42484677222223</v>
+        <v>196078127</v>
       </c>
       <c r="E7" s="2">
-        <v>196078127</v>
-      </c>
-      <c r="F7" s="2">
         <v>115568893</v>
       </c>
-      <c r="G7">
-        <f>F7/E7</f>
+      <c r="F7">
+        <f>E7/D7</f>
         <v>0.58940226922914252</v>
       </c>
     </row>
